--- a/medicine/Sexualité et sexologie/Les_Vies_de_Loulou_(film,_1990)/Les_Vies_de_Loulou_(film,_1990).xlsx
+++ b/medicine/Sexualité et sexologie/Les_Vies_de_Loulou_(film,_1990)/Les_Vies_de_Loulou_(film,_1990).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Vies de Loulou (espagnol : Las edades de Lulú) est un film érotique italo-espagnol de Bigas Luna sorti en 1990. Il met en vedette Francesca Neri, Óscar Ladoire, María Barranco et Javier Bardem. Il est adapté du roman homonyme d'Almudena Grandes. Le film traite de la nature, de la vie et de l'éveil sexuel des personnages à Madrid.
 </t>
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Lulú qui a quinze ans est séduite par Pablo, le meilleur ami de son frère Marcelo, qui part travailler aux États-Unis. Lulú espère depuis des années que Pablo va revenir dans sa vie. Lorsqu'il revient, il lui fait sa demande en mariage. Pablo et Lulú ont une relation passionnée, développant un goût pour les jeux sexuels.
 </t>
@@ -542,7 +556,9 @@
           <t>Notice technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre en français : Les Vies de Loulou
 Titre original : Las edades de Lulú
@@ -582,7 +598,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Francesca Neri : Lulú
 Óscar Ladoire : Pablo
@@ -626,7 +644,9 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le film est une adaptation du best-seller du même nom écrit par Almudena Grandes. Ángela Molina, pressentie pour le rôle principal, se serait retirée quand elle a appris de façon explicite les scènes de sexe.
 Javier Bardem a un petit rôle non-crédité de gay, l'un de ses premiers rôles à l'écran.
@@ -659,10 +679,12 @@
           <t>Réception</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Vies de Loulou a reçu le Rotten Tomatoes pour des taux d'audience de 57 % sur la Tomatometer, par les membres du site[1].
-Le film a été listé comme le quatrième film sur cinquante des plus Sexy Film Moments[2].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Vies de Loulou a reçu le Rotten Tomatoes pour des taux d'audience de 57 % sur la Tomatometer, par les membres du site.
+Le film a été listé comme le quatrième film sur cinquante des plus Sexy Film Moments.
 María Barranco a remporté le Prix Goya du meilleur second rôle féminin pour son rôle d'une femme trans prostituée.
 </t>
         </is>
@@ -692,9 +714,11 @@
           <t>Médias</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Vies de Loulou est sorti sur DVD chez Umbrella Entertainment en décembre 2011. Le DVD est compatible avec le code de région 4[3].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Vies de Loulou est sorti sur DVD chez Umbrella Entertainment en décembre 2011. Le DVD est compatible avec le code de région 4.
 </t>
         </is>
       </c>
